--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAFCE4F-E00A-4C64-A0B1-28F827FE6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DC065-BBCD-4D92-BE9B-AF3ED731395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="1020" windowWidth="19605" windowHeight="14070" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="28.03.2024" sheetId="1" r:id="rId1"/>
+    <sheet name="29.03.2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="89">
   <si>
     <t>Page name</t>
   </si>
@@ -110,15 +111,9 @@
     <t>Footer.php</t>
   </si>
   <si>
-    <t>game-half-form.php</t>
-  </si>
-  <si>
     <t>game-hallf-single.php</t>
   </si>
   <si>
-    <t>Style it, lil bit more validation</t>
-  </si>
-  <si>
     <t>game-single.php</t>
   </si>
   <si>
@@ -294,6 +289,21 @@
   </si>
   <si>
     <t>Update board with latest tasks</t>
+  </si>
+  <si>
+    <t>address.php</t>
+  </si>
+  <si>
+    <t>doctor.php</t>
+  </si>
+  <si>
+    <t>guardian.php</t>
+  </si>
+  <si>
+    <t>game-half-single.php</t>
+  </si>
+  <si>
+    <t>Try to make whole card clickable</t>
   </si>
 </sst>
 </file>
@@ -422,18 +432,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -750,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81D2AD-7603-463C-AC93-7786848214C1}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,53 +772,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -819,10 +826,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -830,104 +837,99 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
@@ -938,10 +940,10 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
@@ -952,10 +954,10 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -963,24 +965,24 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
@@ -989,147 +991,147 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
@@ -1138,68 +1140,68 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D36" t="s">
@@ -1208,281 +1210,289 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
         <v>61</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
+      <c r="C58" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,38 +1500,774 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5745EBF-64B8-4214-BBE9-07590F513ABA}">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
         <v>76</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
         <v>83</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DC065-BBCD-4D92-BE9B-AF3ED731395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D87BD1-1B0E-4754-8519-D52F3CB7A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
+    <workbookView xWindow="5775" yWindow="1410" windowWidth="19605" windowHeight="14070" activeTab="1" xr2:uid="{3B7D8034-42B2-4293-9608-E1EB45CE33E0}"/>
   </bookViews>
   <sheets>
     <sheet name="28.03.2024" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="91">
   <si>
     <t>Page name</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Try to make whole card clickable</t>
+  </si>
+  <si>
+    <t>Move stmt commands into class, allow for empty inputs</t>
+  </si>
+  <si>
+    <t>update-junior-skill.php</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81D2AD-7603-463C-AC93-7786848214C1}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,66 +1425,66 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>74</v>
@@ -1486,10 +1492,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>74</v>
@@ -1497,15 +1503,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1517,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5745EBF-64B8-4214-BBE9-07590F513ABA}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,11 +2133,8 @@
       <c r="B52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,11 +2144,8 @@
       <c r="B53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,11 +2155,8 @@
       <c r="B54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>44</v>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,11 +2166,8 @@
       <c r="B55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>44</v>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,70 +2177,67 @@
       <c r="B56" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>74</v>
@@ -2243,10 +2245,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>74</v>
@@ -2254,15 +2256,26 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
         <v>83</v>
       </c>
     </row>
